--- a/biology/Histoire de la zoologie et de la botanique/Franz_von_Paula_Gruithuisen/Franz_von_Paula_Gruithuisen.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Franz_von_Paula_Gruithuisen/Franz_von_Paula_Gruithuisen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Franz von Paula Gruithuisen est un naturaliste et astronome bavarois, né à Haltenberg, sur le Leck, en 1774, et mort en 1852.
 Il obtint la chaire de médecine de Munich en 1808, et professa l’astronomie avec beaucoup d’éclat, à partir de 1826, à l’observatoire de la même ville. Avant Civiale, il découvrit le lithotriteur, pour lequel il reçut de l’Institut de France un prix de 1,000 francs.
@@ -512,7 +524,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On a de lui : De l’existence du sentiment dans les têtes et les troncs des décapités (1809) ; Anthropologie (1810) ; De la nature des comètes (1811) ; Pensées et opinions sur tes causes des tremblements de terre (1825) ; Histoire naturelle du ciel étoile (1836) ; Découverte de traces évidentes d’habitants dans la lune, inséré dans les Archives de Kastner.
 Il a publié aussi deux almanachs d’astronomie, de géographie et d’histoire naturelle, le premier sous le titre d’Analectes, 1828-1832, le deuxième sous celui d’Annuaire, de 1838 jusqu’à sa mort.
@@ -544,7 +558,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les montagnes de la Lune suivantes portent son nom : 
 Mons Gruithuisen Delta
@@ -576,7 +592,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">« François de Paule Guithuisen », dans Pierre Larousse, Grand dictionnaire universel du XIXe siècle, Paris, Administration du grand dictionnaire universel, 15 vol., 1863-1890 [détail des éditions].
 </t>
